--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/20/seed1/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.061999999999999</v>
+        <v>-7.207000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.292</v>
+        <v>-11.9</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.716</v>
+        <v>-21.468</v>
       </c>
       <c r="B4" t="n">
-        <v>6.574</v>
+        <v>7.013000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.05</v>
+        <v>-12.326</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -516,13 +516,13 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.036</v>
+        <v>6.324999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.75</v>
+        <v>-8.300999999999998</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.612</v>
+        <v>-21.383</v>
       </c>
       <c r="B6" t="n">
-        <v>6.472</v>
+        <v>6.252000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.474</v>
+        <v>-21.179</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.368</v>
+        <v>-21.398</v>
       </c>
       <c r="B8" t="n">
-        <v>5.642</v>
+        <v>6.153</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.85</v>
+        <v>-11.775</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.71</v>
+        <v>-12.642</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.852</v>
+        <v>-11.607</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.112</v>
+        <v>-21.212</v>
       </c>
       <c r="B16" t="n">
-        <v>5.642</v>
+        <v>5.896000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.09</v>
+        <v>-12.634</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.62</v>
+        <v>-21.907</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.452</v>
+        <v>-8.434000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.624</v>
+        <v>-21.14</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.600000000000001</v>
+        <v>6.386000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.624</v>
+        <v>-12.642</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
